--- a/51. Upwork SEO.xlsx
+++ b/51. Upwork SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CEAE39-433C-4873-B20F-C106B2DED533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E8B21-FA2E-476E-9886-7F282C962429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C94D07-C89C-4835-870C-109EED44E915}"/>
   </bookViews>
